--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L3_S4_i23_Scheibenbremse_abtriebswelle22.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L3_S4_i23_Scheibenbremse_abtriebswelle22.xlsx
@@ -511,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1008,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1101,18 +1127,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1123,6 +1146,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1150,7 +1174,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1457,7 +1489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1467,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1487,45 +1519,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="56"/>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="82" t="s">
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="58"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
@@ -1836,9 +1868,15 @@
       <c r="S10" s="43"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="24">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
@@ -1863,9 +1901,15 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="24">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
       </c>
@@ -1892,10 +1936,16 @@
       <c r="S12" s="43"/>
     </row>
     <row r="13" spans="1:19" ht="15" thickBot="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="89" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -1919,10 +1969,16 @@
       <c r="S13" s="43"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="59">
+        <v>1</v>
+      </c>
+      <c r="B14" s="60">
+        <v>3</v>
+      </c>
+      <c r="C14" s="60">
+        <v>1</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="60" t="s">
@@ -2351,9 +2407,15 @@
       <c r="S27" s="43"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>78</v>
       </c>
@@ -2378,9 +2440,15 @@
       <c r="S28" s="43"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="24">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
@@ -2407,10 +2475,16 @@
       <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="10">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="89" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="37" t="s">
@@ -2434,19 +2508,25 @@
       <c r="S30" s="43"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="6">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="76">
         <v>11132</v>
       </c>
       <c r="H31" s="21"/>
@@ -2463,19 +2543,25 @@
       <c r="S31" s="43"/>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="3" t="s">
+      <c r="A32" s="16">
+        <v>2</v>
+      </c>
+      <c r="B32" s="17">
+        <v>3</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="F32" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="91">
+      <c r="G32" s="79">
         <v>14131</v>
       </c>
       <c r="H32" s="21"/>
@@ -2636,9 +2722,15 @@
       <c r="S36" s="43"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="24">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>78</v>
       </c>
@@ -2663,19 +2755,25 @@
       <c r="S37" s="43"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
+      <c r="A38" s="64">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="67">
         <v>12140</v>
       </c>
       <c r="H38" s="21"/>
@@ -2692,16 +2790,22 @@
       <c r="S38" s="43"/>
     </row>
     <row r="39" spans="1:19" ht="15" thickBot="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="3" t="s">
+      <c r="A39" s="16">
+        <v>9</v>
+      </c>
+      <c r="B39" s="90">
+        <v>2</v>
+      </c>
+      <c r="C39" s="89">
+        <v>1</v>
+      </c>
+      <c r="D39" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="62" t="s">
         <v>108</v>
       </c>
       <c r="G39" s="57"/>
@@ -2719,19 +2823,25 @@
       <c r="S39" s="43"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="3" t="s">
+      <c r="A40" s="68">
+        <v>1</v>
+      </c>
+      <c r="B40" s="91">
+        <v>3</v>
+      </c>
+      <c r="C40" s="91">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="77">
         <v>11132</v>
       </c>
       <c r="H40" s="21"/>
@@ -2748,19 +2858,25 @@
       <c r="S40" s="43"/>
     </row>
     <row r="41" spans="1:19" ht="15" thickBot="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="10">
+        <v>2</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="91">
+      <c r="G41" s="79">
         <v>14131</v>
       </c>
       <c r="H41" s="21"/>
@@ -2921,8 +3037,12 @@
       <c r="S45" s="43"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="24">
+        <v>7</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
       <c r="C46" s="25"/>
       <c r="D46" s="3" t="s">
         <v>78</v>
@@ -2948,8 +3068,12 @@
       <c r="S46" s="43"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="24">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
       <c r="C47" s="25"/>
       <c r="D47" s="3" t="s">
         <v>78</v>
@@ -2977,13 +3101,17 @@
       <c r="S47" s="43"/>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="3" t="s">
+      <c r="A48" s="93">
+        <v>9</v>
+      </c>
+      <c r="B48" s="90">
+        <v>2</v>
+      </c>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="94" t="s">
         <v>107</v>
       </c>
       <c r="F48" s="54" t="s">
@@ -3004,19 +3132,25 @@
       <c r="S48" s="43"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="70"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="3" t="s">
+      <c r="A49" s="95">
+        <v>1</v>
+      </c>
+      <c r="B49" s="91">
+        <v>3</v>
+      </c>
+      <c r="C49" s="91">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="80">
+      <c r="G49" s="77">
         <v>11132</v>
       </c>
       <c r="H49" s="21"/>
@@ -3033,19 +3167,25 @@
       <c r="S49" s="43"/>
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="3" t="s">
+      <c r="A50" s="10">
+        <v>2</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="91">
+      <c r="G50" s="79">
         <v>14131</v>
       </c>
       <c r="H50" s="21"/>
@@ -3382,13 +3522,13 @@
       <c r="D62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="78" t="s">
+      <c r="F62" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="78">
         <v>12140</v>
       </c>
       <c r="H62" s="21"/>
@@ -3830,13 +3970,13 @@
       <c r="D77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="64" t="s">
+      <c r="E77" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="78" t="s">
+      <c r="F77" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="G77" s="81">
+      <c r="G77" s="78">
         <v>12140</v>
       </c>
       <c r="H77" s="21"/>

--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L3_S4_i23_Scheibenbremse_abtriebswelle22.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L3_S4_i23_Scheibenbremse_abtriebswelle22.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\AFL\i=23,28 Scheibenbremse, Abtriebswelle=22\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45FB56-4661-412D-AD64-6102333F5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i23_fremdlüfter_abtriebswelle22" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -451,8 +457,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,6 +1153,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,18 +1189,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1489,75 +1495,75 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="21" customWidth="1"/>
     <col min="9" max="9" width="46" customWidth="1"/>
-    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" customWidth="1"/>
-    <col min="16" max="16" width="22.08984375" customWidth="1"/>
-    <col min="17" max="17" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="56"/>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="80" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="81" t="s">
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="58"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
@@ -1572,7 +1578,7 @@
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>72</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="72.5">
+    <row r="4" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1665,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1">
+    <row r="5" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1693,7 +1699,7 @@
       <c r="R5" s="21"/>
       <c r="S5" s="43"/>
     </row>
-    <row r="6" spans="1:19" ht="29">
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
@@ -1722,7 +1728,7 @@
       <c r="R6" s="21"/>
       <c r="S6" s="43"/>
     </row>
-    <row r="7" spans="1:19" ht="29.5" thickBot="1">
+    <row r="7" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1750,7 +1756,7 @@
       <c r="R7" s="21"/>
       <c r="S7" s="43"/>
     </row>
-    <row r="8" spans="1:19" ht="58">
+    <row r="8" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1834,7 +1840,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="43"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1867,7 +1873,7 @@
       <c r="R10" s="21"/>
       <c r="S10" s="43"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -1900,7 +1906,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="43"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -1935,7 +1941,7 @@
       <c r="R12" s="21"/>
       <c r="S12" s="43"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -1945,7 +1951,7 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="80" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -1968,7 +1974,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="43"/>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1">
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="59">
         <v>1</v>
       </c>
@@ -2003,7 +2009,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="43"/>
     </row>
-    <row r="15" spans="1:19" ht="43.5">
+    <row r="15" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="22"/>
       <c r="C15" s="21"/>
@@ -2032,7 +2038,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="43"/>
     </row>
-    <row r="16" spans="1:19" ht="43.5">
+    <row r="16" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21"/>
@@ -2061,7 +2067,7 @@
       <c r="R16" s="21"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="1:19" ht="43.5">
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2089,7 +2095,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="43"/>
     </row>
-    <row r="18" spans="1:19" ht="43.5">
+    <row r="18" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="22"/>
       <c r="C18" s="21"/>
@@ -2118,7 +2124,7 @@
       <c r="R18" s="21"/>
       <c r="S18" s="43"/>
     </row>
-    <row r="19" spans="1:19" ht="29">
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2146,7 +2152,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="43"/>
     </row>
-    <row r="20" spans="1:19" ht="29">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="22"/>
       <c r="C20" s="21"/>
@@ -2175,7 +2181,7 @@
       <c r="R20" s="21"/>
       <c r="S20" s="43"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2203,7 +2209,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="43"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="22"/>
       <c r="C22" s="21"/>
@@ -2232,7 +2238,7 @@
       <c r="R22" s="21"/>
       <c r="S22" s="43"/>
     </row>
-    <row r="23" spans="1:19" ht="43.5">
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2260,7 +2266,7 @@
       <c r="R23" s="21"/>
       <c r="S23" s="43"/>
     </row>
-    <row r="24" spans="1:19" ht="44" thickBot="1">
+    <row r="24" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="41"/>
       <c r="B24" s="22"/>
       <c r="C24" s="21"/>
@@ -2289,7 +2295,7 @@
       <c r="R24" s="21"/>
       <c r="S24" s="43"/>
     </row>
-    <row r="25" spans="1:19" ht="58">
+    <row r="25" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2373,7 +2379,7 @@
       <c r="R26" s="21"/>
       <c r="S26" s="43"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -2406,7 +2412,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="43"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>7</v>
       </c>
@@ -2439,7 +2445,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="43"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>8</v>
       </c>
@@ -2474,7 +2480,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="43"/>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1">
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>9</v>
       </c>
@@ -2484,7 +2490,7 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="80" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="37" t="s">
@@ -2507,7 +2513,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="43"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -2542,7 +2548,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="43"/>
     </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1">
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>2</v>
       </c>
@@ -2577,7 +2583,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="43"/>
     </row>
-    <row r="33" spans="1:19" ht="44" thickBot="1">
+    <row r="33" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="41"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -2606,7 +2612,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="43"/>
     </row>
-    <row r="34" spans="1:19" ht="58">
+    <row r="34" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="S34" s="43"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="43"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -2721,7 +2727,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="43"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>7</v>
       </c>
@@ -2754,7 +2760,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="43"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
         <v>8</v>
       </c>
@@ -2789,17 +2795,17 @@
       <c r="R38" s="21"/>
       <c r="S38" s="43"/>
     </row>
-    <row r="39" spans="1:19" ht="15" thickBot="1">
+    <row r="39" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>9</v>
       </c>
-      <c r="B39" s="90">
+      <c r="B39" s="81">
         <v>2</v>
       </c>
-      <c r="C39" s="89">
-        <v>1</v>
-      </c>
-      <c r="D39" s="89" t="s">
+      <c r="C39" s="80">
+        <v>1</v>
+      </c>
+      <c r="D39" s="80" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="69" t="s">
@@ -2822,20 +2828,20 @@
       <c r="R39" s="21"/>
       <c r="S39" s="43"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>1</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="82">
         <v>3</v>
       </c>
-      <c r="C40" s="91">
+      <c r="C40" s="82">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="92" t="s">
+      <c r="E40" s="83" t="s">
         <v>134</v>
       </c>
       <c r="F40" s="71" t="s">
@@ -2857,7 +2863,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="43"/>
     </row>
-    <row r="41" spans="1:19" ht="15" thickBot="1">
+    <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>2</v>
       </c>
@@ -2892,7 +2898,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="43"/>
     </row>
-    <row r="42" spans="1:19" ht="58.5" thickBot="1">
+    <row r="42" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="41"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2921,7 +2927,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="43"/>
     </row>
-    <row r="43" spans="1:19" ht="58">
+    <row r="43" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -2970,7 +2976,7 @@
       </c>
       <c r="S43" s="43"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -3003,7 +3009,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="43"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>6</v>
       </c>
@@ -3036,7 +3042,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="43"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>7</v>
       </c>
@@ -3067,7 +3073,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="43"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>8</v>
       </c>
@@ -3100,18 +3106,18 @@
       <c r="R47" s="21"/>
       <c r="S47" s="43"/>
     </row>
-    <row r="48" spans="1:19" ht="15" thickBot="1">
-      <c r="A48" s="93">
+    <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="84">
         <v>9</v>
       </c>
-      <c r="B48" s="90">
+      <c r="B48" s="81">
         <v>2</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89" t="s">
+      <c r="C48" s="80"/>
+      <c r="D48" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="94" t="s">
+      <c r="E48" s="85" t="s">
         <v>107</v>
       </c>
       <c r="F48" s="54" t="s">
@@ -3131,20 +3137,20 @@
       <c r="R48" s="21"/>
       <c r="S48" s="43"/>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="95">
-        <v>1</v>
-      </c>
-      <c r="B49" s="91">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="86">
+        <v>1</v>
+      </c>
+      <c r="B49" s="82">
         <v>3</v>
       </c>
-      <c r="C49" s="91">
+      <c r="C49" s="82">
         <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="92" t="s">
+      <c r="E49" s="83" t="s">
         <v>134</v>
       </c>
       <c r="F49" s="71" t="s">
@@ -3166,7 +3172,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="43"/>
     </row>
-    <row r="50" spans="1:19" ht="15" thickBot="1">
+    <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>2</v>
       </c>
@@ -3201,7 +3207,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="43"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3221,7 +3227,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="43"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -3250,7 +3256,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="43"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3278,7 +3284,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="43"/>
     </row>
-    <row r="54" spans="1:19" ht="29">
+    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3306,7 +3312,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="43"/>
     </row>
-    <row r="55" spans="1:19" ht="29">
+    <row r="55" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3334,7 +3340,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="43"/>
     </row>
-    <row r="56" spans="1:19" ht="29">
+    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3362,7 +3368,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="43"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3382,7 +3388,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="43"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3402,7 +3408,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="43"/>
     </row>
-    <row r="59" spans="1:19" ht="29">
+    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3430,7 +3436,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="43"/>
     </row>
-    <row r="60" spans="1:19" ht="29.5" thickBot="1">
+    <row r="60" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="41"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3458,7 +3464,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="43"/>
     </row>
-    <row r="61" spans="1:19" ht="58">
+    <row r="61" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15" thickBot="1">
+    <row r="62" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -3544,7 +3550,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="43"/>
     </row>
-    <row r="63" spans="1:19" ht="15" thickBot="1">
+    <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>5</v>
       </c>
@@ -3577,7 +3583,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="43"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3597,7 +3603,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="43"/>
     </row>
-    <row r="65" spans="1:19" ht="29">
+    <row r="65" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3625,7 +3631,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="43"/>
     </row>
-    <row r="66" spans="1:19" ht="29">
+    <row r="66" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3653,7 +3659,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="43"/>
     </row>
-    <row r="67" spans="1:19" ht="29">
+    <row r="67" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3681,7 +3687,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="43"/>
     </row>
-    <row r="68" spans="1:19" ht="29">
+    <row r="68" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3709,7 +3715,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="43"/>
     </row>
-    <row r="69" spans="1:19" ht="29">
+    <row r="69" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3737,7 +3743,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="43"/>
     </row>
-    <row r="70" spans="1:19" ht="29">
+    <row r="70" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3765,7 +3771,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="43"/>
     </row>
-    <row r="71" spans="1:19" ht="43.5">
+    <row r="71" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3793,7 +3799,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="43"/>
     </row>
-    <row r="72" spans="1:19" ht="43.5">
+    <row r="72" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3821,7 +3827,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="43"/>
     </row>
-    <row r="73" spans="1:19" ht="43.5">
+    <row r="73" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3850,7 +3856,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="43"/>
     </row>
-    <row r="74" spans="1:19" ht="43.5">
+    <row r="74" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3878,7 +3884,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="43"/>
     </row>
-    <row r="75" spans="1:19" ht="44" thickBot="1">
+    <row r="75" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3906,7 +3912,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="43"/>
     </row>
-    <row r="76" spans="1:19" ht="58">
+    <row r="76" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15" thickBot="1">
+    <row r="77" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -3992,7 +3998,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="43"/>
     </row>
-    <row r="78" spans="1:19" ht="15" thickBot="1">
+    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>5</v>
       </c>
@@ -4025,7 +4031,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="43"/>
     </row>
-    <row r="79" spans="1:19" ht="43.5">
+    <row r="79" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -4053,7 +4059,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="43"/>
     </row>
-    <row r="80" spans="1:19" ht="43.5">
+    <row r="80" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4081,7 +4087,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="43"/>
     </row>
-    <row r="81" spans="1:19" ht="43.5">
+    <row r="81" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4109,7 +4115,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="43"/>
     </row>
-    <row r="82" spans="1:19" ht="43.5">
+    <row r="82" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4137,7 +4143,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="43"/>
     </row>
-    <row r="83" spans="1:19" ht="43.5">
+    <row r="83" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4165,7 +4171,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="43"/>
     </row>
-    <row r="84" spans="1:19" ht="43.5">
+    <row r="84" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4193,7 +4199,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="43"/>
     </row>
-    <row r="85" spans="1:19" ht="44" thickBot="1">
+    <row r="85" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
